--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\测试\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F210D2-0CA3-4583-82FE-D91BA73D95E2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A748E69B-787B-4144-8E75-DC4999F5AE9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="2340" windowWidth="22815" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>method</t>
   </si>
@@ -36,21 +36,6 @@
     <t>body</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>statuscode</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>checkpoint</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>t-001</t>
   </si>
   <si>
@@ -58,41 +43,7 @@
   </si>
   <si>
     <t>headers</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>epen_caseid</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>epend_casedata</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>{"Content-Type": "application/json"}</t>
@@ -104,32 +55,60 @@
     <t>/common/v1/auth/user/login</t>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>t-002</t>
+  </si>
+  <si>
+    <t>t_id</t>
+  </si>
+  <si>
+    <t>assertinfo</t>
+  </si>
+  <si>
+    <t>isSecret</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_caseId</t>
+  </si>
+  <si>
+    <t>apiName</t>
+  </si>
+  <si>
+    <t>depend_casedata</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>files</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>key_id</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>secret_key</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRedirect</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>code:0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -289,6 +268,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Source Code Pro"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -596,148 +581,148 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="41" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1120,26 +1105,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="6" max="6" width="169.75" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="13.375" customWidth="1"/>
+    <col min="12" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>17</v>
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1151,76 +1136,89 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="96" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1232,9 +1230,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1245,9 +1243,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A748E69B-787B-4144-8E75-DC4999F5AE9E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C6987D-FEED-4BBA-9745-7B7A0E4DE09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>{"Content-Type": "application/json"}</t>
   </si>
   <si>
-    <t>{"showflag": 1, "datas": [{"paramValue": "18710548141", "paramType": "String", "paramName": "phone"}, {"paramValue": "yr123456", "paramType": "String", "paramName": "auth"}]}</t>
-  </si>
-  <si>
     <t>/common/v1/auth/user/login</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   <si>
     <t>code:0</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":18710548141,"auth":"yr123456"}</t>
   </si>
 </sst>
 </file>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1124,7 +1124,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1142,31 +1142,31 @@
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1177,19 +1177,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1199,22 +1199,22 @@
     </row>
     <row r="3" spans="1:15" ht="96" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1247,5 +1247,6 @@
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C6987D-FEED-4BBA-9745-7B7A0E4DE09C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7920AD14-943E-4071-BB39-1A3B720B7BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>method</t>
   </si>
@@ -96,13 +96,17 @@
   </si>
   <si>
     <t>{"phone":18710548141,"auth":"yr123456"}</t>
+  </si>
+  <si>
+    <t>t-003</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,12 +272,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Source Code Pro"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -708,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -718,9 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
@@ -1105,28 +1100,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="169.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
     <col min="12" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1141,35 +1140,35 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1187,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1"/>
@@ -1197,7 +1196,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="96" customHeight="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1213,7 +1212,21 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1230,7 +1243,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1243,7 +1256,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7920AD14-943E-4071-BB39-1A3B720B7BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405ED900-D064-4845-9A29-7815C0806173}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>method</t>
   </si>
@@ -98,7 +98,60 @@
     <t>{"phone":18710548141,"auth":"yr123456"}</t>
   </si>
   <si>
+    <t>/app/v1/quote/user/query/marketinfobatch</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>t-003</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取市场接口</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试依赖</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-002</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-004</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>code:0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data:801}</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +324,19 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Source Code Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -706,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -717,8 +783,15 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1100,32 +1173,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
     <col min="12" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1140,42 +1210,42 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1184,10 +1254,12 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1"/>
@@ -1196,14 +1268,14 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="96" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1212,22 +1284,57 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" ht="28.5">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.5">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1256,7 +1363,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405ED900-D064-4845-9A29-7815C0806173}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71D5C8-45CA-4BFE-95A4-C289EBB85616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>method</t>
   </si>
@@ -98,23 +98,11 @@
     <t>{"phone":18710548141,"auth":"yr123456"}</t>
   </si>
   <si>
-    <t>/app/v1/quote/user/query/marketinfobatch</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>t-003</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>获取市场接口</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试依赖</t>
+    <t>t-004</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -122,36 +110,7 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-001</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>t-002</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>t-004</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>code:0</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>{data:801}</t>
+    <t>asd</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,19 +283,6 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Source Code Pro"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -772,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -783,15 +729,11 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1175,27 +1117,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.875" customWidth="1"/>
+    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
     <col min="12" max="13" width="13.375" customWidth="1"/>
+    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1210,42 +1155,42 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.5">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -1254,12 +1199,10 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="1"/>
@@ -1268,14 +1211,14 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="96" customHeight="1">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
@@ -1284,38 +1227,32 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="28.5">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="28.5">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
@@ -1324,17 +1261,32 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" t="s">
-        <v>31</v>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>123</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>1234</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1363,7 +1315,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71D5C8-45CA-4BFE-95A4-C289EBB85616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510A0A46-9892-4A3D-89FB-8A22D4755430}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>method</t>
   </si>
@@ -39,9 +39,6 @@
     <t>t-001</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
     <t>headers</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -98,19 +95,73 @@
     <t>{"phone":18710548141,"auth":"yr123456"}</t>
   </si>
   <si>
+    <t>/app/v1/quote/user/query/marketinfobatch</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>t-003</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>获取市场接口</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试依赖</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-001</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-002</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
     <t>t-004</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>asd</t>
+    <t>code:0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OST</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":801}</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +334,19 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Source Code Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -718,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -729,11 +793,15 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1117,30 +1185,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="7" customWidth="1"/>
     <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.875" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
     <col min="12" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1150,60 +1215,62 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1211,82 +1278,73 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="96" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.5">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.5">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>123</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>1234</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1360,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,7 +1373,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC71D5C8-45CA-4BFE-95A4-C289EBB85616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15363B3-C8F8-42E6-8C30-C08C05D65EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>method</t>
   </si>
@@ -112,6 +112,12 @@
   <si>
     <t>asd</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"data":801}</t>
+  </si>
+  <si>
+    <t>["t-003"]</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1205,9 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="4" t="s">
@@ -1227,6 +1235,9 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1241,8 +1252,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
       <c r="J4" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1262,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>13</v>
-      </c>
-      <c r="I5">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>20</v>
@@ -1276,16 +1293,16 @@
       <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="b">
+      <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>1234</v>
-      </c>
-      <c r="O5" t="b">
+        <v>123</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
     </row>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15363B3-C8F8-42E6-8C30-C08C05D65EF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D48992-EEE8-46DD-844B-F253A0B9F5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>method</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>t-001</t>
-  </si>
-  <si>
-    <t>post</t>
   </si>
   <si>
     <t>headers</t>
@@ -106,10 +103,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>asd</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -118,13 +111,31 @@
   </si>
   <si>
     <t>["t-003"]</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://market-stage.youyu.cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +302,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +494,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -735,10 +760,13 @@
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1121,193 +1149,869 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="17.75" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="13" width="13.375" customWidth="1"/>
-    <col min="14" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="14" width="13.375" customWidth="1"/>
+    <col min="15" max="16" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5">
+      <c r="O5" s="1">
+        <v>123</v>
+      </c>
+      <c r="P5" s="1">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>123</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B40" xr:uid="{EA957F16-E531-4BFA-9E7B-CEBB5A138208}">
+      <formula1>$Q$1:$R$1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FDMDownload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D48992-EEE8-46DD-844B-F253A0B9F5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F16B0C-06B0-4517-B661-8961BEA3DFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>method</t>
   </si>
@@ -110,9 +110,6 @@
     <t>{"data":801}</t>
   </si>
   <si>
-    <t>["t-003"]</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -129,6 +126,26 @@
   </si>
   <si>
     <t>https://market-stage.youyu.cn</t>
+  </si>
+  <si>
+    <t>["6"]</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-005</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-006</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-007</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-008</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -749,7 +766,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
@@ -767,6 +784,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="41" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,7 +1172,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1221,10 +1241,10 @@
         <v>18</v>
       </c>
       <c r="Q1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1232,10 +1252,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1247,8 +1267,8 @@
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
+      <c r="H2" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1266,10 +1286,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -1281,8 +1301,8 @@
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1">
-        <v>2</v>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1300,10 +1320,10 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -1311,8 +1331,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>3</v>
+      <c r="H4" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1332,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1347,11 +1367,11 @@
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>24</v>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FDMDownload\接口模板\模版示例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A508312-EC23-43D9-ACE6-0841C7AC3E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACEEB00-9213-4DAD-9D6B-F8E1DC708746}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>headers</t>
   </si>
@@ -55,33 +55,6 @@
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>t-001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>t-002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://market-stage.youyu.cn</t>
-  </si>
-  <si>
-    <t>/common/v1/auth/user/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"phone":18710548141,"auth":"yr123456"}</t>
-  </si>
-  <si>
-    <t>{"data":"user"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"code":0</t>
   </si>
   <si>
     <t>说明：</t>
@@ -390,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -408,9 +381,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -730,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,18 +719,18 @@
     <col min="15" max="16" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -778,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -800,12 +770,12 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -817,152 +787,146 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8" t="s">
+    </row>
+    <row r="4" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="8" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="N5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -974,62 +938,62 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" s="8" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="8" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>56</v>
+      <c r="J10" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1504,11 +1468,13 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
-    <hyperlink ref="C10" r:id="rId2" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{AED8AE24-BE50-4DAF-859B-FBB0D5A11244}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{0F3A7FFF-F84A-4F28-A9EB-2C2DF5354968}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\图片\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ACEEB00-9213-4DAD-9D6B-F8E1DC708746}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F1E49-5970-430B-87D3-C5F0E705C652}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1995" windowWidth="24255" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>headers</t>
   </si>
@@ -234,6 +234,40 @@
   </si>
   <si>
     <t>t02</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行用例</t>
+  </si>
+  <si>
+    <t>https://pc-market-qa.youyu.cn</t>
+  </si>
+  <si>
+    <t>/pc/v1/quote/user/query/marketinfobatch</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"loginid":90976,"auth":"731416e1214b615a77f480f053f6737398e7889be17a7f77e8aad91b1b68e66b6d65993b42902a7445dc97d68a29e4882e1d3eb9c5c17e54e7b8d30a54ae5b02c308292c579eb09920ba990632ea6f0dd308c748bbb7851ba2aa9470c728f01d"}</t>
+  </si>
+  <si>
+    <t>被依赖用例</t>
+  </si>
+  <si>
+    <t>https://uc-qa.youyu.cn</t>
+  </si>
+  <si>
+    <t>/v1/users/check</t>
+  </si>
+  <si>
+    <t>{ "Content-Type": "application/json" }</t>
+  </si>
+  <si>
+    <t>{ "aver": 1, "type": "mobile", "value": "+8610111112245" }</t>
+  </si>
+  <si>
+    <t>问请问企鹅企鹅</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -241,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +328,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -363,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -391,6 +432,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -700,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -711,7 +765,7 @@
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="14" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.375" customWidth="1"/>
@@ -735,7 +789,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -777,7 +831,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -803,7 +857,7 @@
       <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -835,6 +889,7 @@
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -843,7 +898,7 @@
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -878,7 +933,7 @@
       <c r="E6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -910,7 +965,7 @@
       <c r="E7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -928,7 +983,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -938,71 +993,63 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>48</v>
+    <row r="9" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1018,7 +1065,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1034,7 +1081,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1050,7 +1097,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1066,7 +1113,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1082,7 +1129,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1098,7 +1145,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1114,7 +1161,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1130,7 +1177,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1146,7 +1193,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1162,7 +1209,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1178,7 +1225,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1194,7 +1241,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1210,7 +1257,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1226,7 +1273,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1242,7 +1289,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1258,7 +1305,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1274,7 +1321,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1290,7 +1337,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1306,7 +1353,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1322,7 +1369,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1338,7 +1385,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1354,7 +1401,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1370,7 +1417,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1386,7 +1433,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1402,7 +1449,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1418,7 +1465,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1434,7 +1481,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1450,7 +1497,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1463,18 +1510,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B8 B12:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$1:$P$1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{AED8AE24-BE50-4DAF-859B-FBB0D5A11244}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{0F3A7FFF-F84A-4F28-A9EB-2C2DF5354968}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\图片\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F1E49-5970-430B-87D3-C5F0E705C652}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB0D9E-742E-4E29-A269-6B81A09F4DA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="1995" windowWidth="24255" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"data":"uin"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"code":0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -268,6 +264,10 @@
   </si>
   <si>
     <t>问请问企鹅企鹅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Cookies","uin"]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -943,36 +943,36 @@
         <v>46</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -995,59 +995,66 @@
     </row>
     <row r="9" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>60</v>
+      <c r="I9" s="10"/>
+      <c r="N9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>65</v>
+      <c r="N10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="2"/>

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\图片\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15F1E49-5970-430B-87D3-C5F0E705C652}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78DEA6E-E4CC-47DF-9F90-1B4D1C483AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1995" windowWidth="24255" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>headers</t>
   </si>
@@ -165,10 +165,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例直接也不要有空行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>执行用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -237,37 +233,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>执行用例</t>
-  </si>
-  <si>
-    <t>https://pc-market-qa.youyu.cn</t>
-  </si>
-  <si>
-    <t>/pc/v1/quote/user/query/marketinfobatch</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{"loginid":90976,"auth":"731416e1214b615a77f480f053f6737398e7889be17a7f77e8aad91b1b68e66b6d65993b42902a7445dc97d68a29e4882e1d3eb9c5c17e54e7b8d30a54ae5b02c308292c579eb09920ba990632ea6f0dd308c748bbb7851ba2aa9470c728f01d"}</t>
-  </si>
-  <si>
-    <t>被依赖用例</t>
-  </si>
-  <si>
-    <t>https://uc-qa.youyu.cn</t>
-  </si>
-  <si>
-    <t>/v1/users/check</t>
-  </si>
-  <si>
-    <t>{ "Content-Type": "application/json" }</t>
-  </si>
-  <si>
-    <t>{ "aver": 1, "type": "mobile", "value": "+8610111112245" }</t>
-  </si>
-  <si>
-    <t>问请问企鹅企鹅</t>
+    <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例之间也不要有空行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>z03</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,13 +298,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -404,7 +367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -432,19 +395,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -754,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +715,7 @@
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="39.75" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.375" customWidth="1"/>
@@ -789,7 +739,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -831,7 +781,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -857,7 +807,7 @@
       <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -889,7 +839,6 @@
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -898,7 +847,7 @@
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -919,71 +868,71 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="7" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -993,63 +942,40 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
+      <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="12"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1065,7 +991,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1081,7 +1007,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1097,7 +1023,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1113,7 +1039,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1129,7 +1055,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="12"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1145,7 +1071,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1161,7 +1087,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1177,7 +1103,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="12"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1193,7 +1119,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1209,7 +1135,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1225,7 +1151,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="12"/>
+      <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1241,7 +1167,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1257,7 +1183,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1273,7 +1199,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="12"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1289,7 +1215,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1305,7 +1231,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="12"/>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1321,7 +1247,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1337,7 +1263,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1353,7 +1279,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1369,7 +1295,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="12"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1385,7 +1311,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1401,7 +1327,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1417,7 +1343,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="12"/>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1433,7 +1359,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1449,7 +1375,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1465,7 +1391,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1481,7 +1407,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1497,7 +1423,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1510,16 +1436,17 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B8 B12:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$1:$P$1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
+    <hyperlink ref="C9" r:id="rId2" xr:uid="{2699251D-9340-4EE6-AE11-5B982F2D0F51}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/main/postfiles/file.xlsx
+++ b/main/postfiles/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhongxu.zhao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nan.wei\Desktop\图片\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78DEA6E-E4CC-47DF-9F90-1B4D1C483AD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB0D9E-742E-4E29-A269-6B81A09F4DA3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1995" windowWidth="24255" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>headers</t>
   </si>
@@ -165,6 +165,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例直接也不要有空行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>执行用例</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -197,10 +201,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"data":"uin"}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"code":0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -233,11 +233,41 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>从下一行开始读取导入数据，请勿修改行数，否则会导致导入出错，用例之间也不要有空行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>z03</t>
+    <t>执行用例</t>
+  </si>
+  <si>
+    <t>https://pc-market-qa.youyu.cn</t>
+  </si>
+  <si>
+    <t>/pc/v1/quote/user/query/marketinfobatch</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"loginid":90976,"auth":"731416e1214b615a77f480f053f6737398e7889be17a7f77e8aad91b1b68e66b6d65993b42902a7445dc97d68a29e4882e1d3eb9c5c17e54e7b8d30a54ae5b02c308292c579eb09920ba990632ea6f0dd308c748bbb7851ba2aa9470c728f01d"}</t>
+  </si>
+  <si>
+    <t>被依赖用例</t>
+  </si>
+  <si>
+    <t>https://uc-qa.youyu.cn</t>
+  </si>
+  <si>
+    <t>/v1/users/check</t>
+  </si>
+  <si>
+    <t>{ "Content-Type": "application/json" }</t>
+  </si>
+  <si>
+    <t>{ "aver": 1, "type": "mobile", "value": "+8610111112245" }</t>
+  </si>
+  <si>
+    <t>问请问企鹅企鹅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Cookies","uin"]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +328,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -367,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
@@ -395,6 +432,19 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -704,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,7 +765,7 @@
     <col min="3" max="3" width="32.75" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="40.5" customWidth="1"/>
-    <col min="6" max="6" width="39.75" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="14" customWidth="1"/>
     <col min="7" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.375" customWidth="1"/>
@@ -739,7 +789,7 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -781,7 +831,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -807,7 +857,7 @@
       <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
@@ -839,6 +889,7 @@
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -847,7 +898,7 @@
       <c r="E5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
@@ -868,31 +919,31 @@
     </row>
     <row r="6" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="F6" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>47</v>
@@ -914,7 +965,7 @@
       <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -926,13 +977,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -942,40 +993,70 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
+    <row r="9" spans="1:16" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -991,7 +1072,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1007,7 +1088,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1023,7 +1104,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1039,7 +1120,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1055,7 +1136,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1071,7 +1152,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1087,7 +1168,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1103,7 +1184,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1119,7 +1200,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1135,7 +1216,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1151,7 +1232,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1167,7 +1248,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1183,7 +1264,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1199,7 +1280,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1215,7 +1296,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1231,7 +1312,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="12"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1247,7 +1328,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1263,7 +1344,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -1279,7 +1360,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -1295,7 +1376,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -1311,7 +1392,7 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -1327,7 +1408,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -1343,7 +1424,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -1359,7 +1440,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="12"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -1375,7 +1456,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -1391,7 +1472,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="12"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -1407,7 +1488,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1423,7 +1504,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -1436,17 +1517,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B6:B8 B12:B39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$O$1:$P$1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
-    <hyperlink ref="C9" r:id="rId2" xr:uid="{2699251D-9340-4EE6-AE11-5B982F2D0F51}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{1847EF1B-B050-4740-AE27-271D82B25FFC}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{8A4E7856-3836-44ED-B5B9-71373DB126F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
